--- a/src/main/resources/static/reports/BaoCaoNhapHang.xlsx
+++ b/src/main/resources/static/reports/BaoCaoNhapHang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FITHOU\DATN\Code\quanghungglasses-api\src\main\resources\static\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34114CEA-F5A9-497F-919F-E81B87236DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99696D29-26A7-48AD-9602-BDA5ED3140DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,16 +47,16 @@
     <t>Màu</t>
   </si>
   <si>
-    <t>SL Bán</t>
+    <t>STT</t>
   </si>
   <si>
-    <t>Doanh thu</t>
+    <t>BÁO CÁO NHẬP HÀNG THÁNG [month]</t>
   </si>
   <si>
-    <t>BÁO CÁO BÁN HÀNG THÁNG [month]</t>
+    <t>SL Nhập</t>
   </si>
   <si>
-    <t>STT</t>
+    <t>Tiền Nhập</t>
   </si>
 </sst>
 </file>
@@ -421,46 +421,47 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -476,46 +477,47 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -531,46 +533,47 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -586,46 +589,47 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -641,46 +645,47 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -696,46 +701,47 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -751,53 +757,55 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -806,46 +814,47 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -861,46 +870,47 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -916,46 +926,47 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -971,46 +982,47 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1026,46 +1038,47 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
